--- a/i18n/dk.xlsx
+++ b/i18n/dk.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="1855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="1856">
   <si>
     <t>id</t>
   </si>
@@ -5731,6 +5731,9 @@
   <si>
     <t>For terninger, der viser to typer fæde, må du tage begge typer. Men denne fugls effekt lader dig tage maks. 1 af hver type føde. Fjern hver terning fra foderbrættet, når du tager den. Under udførelsen af denne effekt slår du kun terningerne én gang i starten. Hvis, som resultat af, at du tager føde med denne fugls effekt, alle tilbageværende terninger i foderbrættet viser samme resultat, må du ikke slå dem om, som en del af maskevibens handling.</t>
   </si>
+  <si>
+    <t>Flavor text</t>
+  </si>
 </sst>
 </file>
 
@@ -5739,7 +5742,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5819,6 +5822,12 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5840,7 +5849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5873,11 +5882,32 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5891,15 +5921,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:K447" totalsRowShown="0">
-  <autoFilter ref="A1:K447"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:L447" totalsRowShown="0">
+  <autoFilter ref="A1:L447"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="English name"/>
     <tableColumn id="3" name="Scientific name"/>
     <tableColumn id="4" name="Expansion"/>
     <tableColumn id="5" name="Common name"/>
     <tableColumn id="6" name="Power text"/>
+    <tableColumn id="12" name="Flavor text" dataDxfId="0"/>
     <tableColumn id="7" name="Note"/>
     <tableColumn id="8" name="Anatomist"/>
     <tableColumn id="9" name="Cartographer"/>
@@ -6048,10 +6079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K447"/>
+  <dimension ref="A1:L447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G295" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G313" sqref="G313"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6061,15 +6092,16 @@
     <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="214.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="296.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="19.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="2"/>
+    <col min="6" max="6" width="127.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="296.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="19.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6088,23 +6120,26 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="22" t="s">
+        <v>1855</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -6123,11 +6158,11 @@
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -6146,14 +6181,14 @@
       <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -6172,14 +6207,14 @@
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -6198,14 +6233,14 @@
       <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -6224,14 +6259,14 @@
       <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="H6" s="21" t="s">
         <v>1844</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -6250,12 +6285,12 @@
       <c r="F7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -6274,14 +6309,14 @@
       <c r="F8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -6300,11 +6335,11 @@
       <c r="F9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -6323,10 +6358,10 @@
       <c r="F10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -6345,12 +6380,12 @@
       <c r="F11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -6369,15 +6404,15 @@
       <c r="F12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -6393,11 +6428,11 @@
       <c r="E13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -6416,18 +6451,18 @@
       <c r="F14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="I14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -6446,14 +6481,14 @@
       <c r="F15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -6472,23 +6507,24 @@
       <c r="F16" s="21" t="s">
         <v>1845</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="21"/>
+      <c r="H16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -6507,13 +6543,13 @@
       <c r="F17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -6532,11 +6568,11 @@
       <c r="F18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -6555,11 +6591,11 @@
       <c r="F19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -6578,17 +6614,17 @@
       <c r="F20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="I20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -6607,11 +6643,11 @@
       <c r="F21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -6630,11 +6666,11 @@
       <c r="F22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -6653,14 +6689,14 @@
       <c r="F23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -6679,12 +6715,12 @@
       <c r="F24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -6703,17 +6739,17 @@
       <c r="F25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -6732,17 +6768,17 @@
       <c r="F26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -6761,12 +6797,12 @@
       <c r="F27" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -6785,14 +6821,14 @@
       <c r="F28" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -6811,11 +6847,11 @@
       <c r="F29" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L29" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -6834,18 +6870,18 @@
       <c r="F30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="I30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -6864,14 +6900,14 @@
       <c r="F31" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -6890,12 +6926,12 @@
       <c r="F32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -6914,14 +6950,14 @@
       <c r="F33" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="H33" s="21" t="s">
         <v>1846</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L33" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -6940,17 +6976,17 @@
       <c r="F34" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -6969,16 +7005,16 @@
       <c r="F35" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="J35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I35" s="1"/>
+      <c r="K35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -6997,10 +7033,10 @@
       <c r="F36" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -7019,13 +7055,13 @@
       <c r="F37" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="H37" s="21" t="s">
         <v>1844</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -7044,13 +7080,13 @@
       <c r="F38" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -7069,17 +7105,17 @@
       <c r="F39" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -7098,15 +7134,15 @@
       <c r="F40" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="K40" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I40" s="1"/>
+      <c r="L40" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -7125,14 +7161,14 @@
       <c r="F41" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -7151,15 +7187,15 @@
       <c r="F42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H42" s="1"/>
-      <c r="K42" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I42" s="1"/>
+      <c r="L42" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -7178,17 +7214,17 @@
       <c r="F43" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -7207,11 +7243,12 @@
       <c r="F44" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="G44" s="4"/>
+      <c r="L44" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -7227,17 +7264,17 @@
       <c r="E45" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -7256,15 +7293,15 @@
       <c r="F46" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -7283,12 +7320,13 @@
       <c r="F47" s="21" t="s">
         <v>1847</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="21"/>
+      <c r="H47" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -7307,11 +7345,11 @@
       <c r="F48" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -7330,9 +7368,9 @@
       <c r="F49" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -7351,17 +7389,17 @@
       <c r="F50" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -7380,9 +7418,9 @@
       <c r="F51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -7401,14 +7439,14 @@
       <c r="F52" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L52" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -7427,11 +7465,11 @@
       <c r="F53" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L53" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -7450,17 +7488,17 @@
       <c r="F54" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -7479,11 +7517,11 @@
       <c r="F55" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -7502,14 +7540,14 @@
       <c r="F56" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J56" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -7528,11 +7566,11 @@
       <c r="F57" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -7551,14 +7589,14 @@
       <c r="F58" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J58" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -7577,11 +7615,11 @@
       <c r="F59" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J59" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -7600,14 +7638,14 @@
       <c r="F60" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J60" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -7626,9 +7664,9 @@
       <c r="F61" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -7647,14 +7685,14 @@
       <c r="F62" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J62" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -7673,14 +7711,14 @@
       <c r="F63" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G63" s="21" t="s">
+      <c r="H63" s="21" t="s">
         <v>1853</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J63" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -7699,12 +7737,12 @@
       <c r="F64" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J64" s="1"/>
-      <c r="K64" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K64" s="1"/>
+      <c r="L64" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -7723,18 +7761,18 @@
       <c r="F65" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J65" s="1"/>
-      <c r="K65" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65" s="1"/>
+      <c r="L65" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -7753,11 +7791,11 @@
       <c r="F66" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I66" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -7776,14 +7814,14 @@
       <c r="F67" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I67" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -7802,17 +7840,17 @@
       <c r="F68" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J68" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K68" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L68" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -7831,14 +7869,14 @@
       <c r="F69" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K69" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -7857,17 +7895,17 @@
       <c r="F70" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -7886,14 +7924,14 @@
       <c r="F71" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G71" s="21" t="s">
+      <c r="H71" s="21" t="s">
         <v>1844</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J71" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -7912,14 +7950,14 @@
       <c r="F72" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K72" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -7938,15 +7976,15 @@
       <c r="F73" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J73" s="1"/>
-      <c r="K73" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K73" s="1"/>
+      <c r="L73" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -7965,18 +8003,18 @@
       <c r="F74" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J74" s="1"/>
-      <c r="K74" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K74" s="1"/>
+      <c r="L74" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -7995,14 +8033,14 @@
       <c r="F75" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J75" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -8021,14 +8059,14 @@
       <c r="F76" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L76" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -8047,14 +8085,14 @@
       <c r="F77" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L77" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -8073,11 +8111,11 @@
       <c r="F78" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -8096,11 +8134,11 @@
       <c r="F79" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -8119,14 +8157,14 @@
       <c r="F80" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K80" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -8145,11 +8183,11 @@
       <c r="F81" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -8168,13 +8206,13 @@
       <c r="F82" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H82" s="1"/>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I82" s="1"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -8193,14 +8231,14 @@
       <c r="F83" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K83" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L83" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -8219,11 +8257,11 @@
       <c r="F84" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -8242,11 +8280,11 @@
       <c r="F85" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -8265,11 +8303,11 @@
       <c r="F86" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -8288,11 +8326,11 @@
       <c r="F87" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -8311,15 +8349,15 @@
       <c r="F88" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="I88" s="1"/>
-      <c r="K88" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J88" s="1"/>
+      <c r="L88" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -8338,11 +8376,11 @@
       <c r="F89" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -8362,7 +8400,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -8381,11 +8419,11 @@
       <c r="F91" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G91" s="21" t="s">
+      <c r="H91" s="21" t="s">
         <v>1844</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -8405,7 +8443,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -8424,11 +8462,11 @@
       <c r="F93" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K93" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -8447,18 +8485,18 @@
       <c r="F94" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -8477,17 +8515,17 @@
       <c r="F95" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H95" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I95" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -8506,13 +8544,13 @@
       <c r="F96" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="I96" s="1"/>
       <c r="J96" s="1"/>
-    </row>
-    <row r="97" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -8531,14 +8569,14 @@
       <c r="F97" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I97" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -8557,11 +8595,11 @@
       <c r="F98" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="H98" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -8580,14 +8618,14 @@
       <c r="F99" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I99" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -8606,11 +8644,11 @@
       <c r="F100" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -8630,7 +8668,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -8649,15 +8687,15 @@
       <c r="F102" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="H102" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K102" s="1"/>
-    </row>
-    <row r="103" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J102" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L102" s="1"/>
+    </row>
+    <row r="103" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -8676,15 +8714,15 @@
       <c r="F103" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I103" s="1"/>
-      <c r="J103" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J103" s="1"/>
+      <c r="K103" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -8703,17 +8741,17 @@
       <c r="F104" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I104" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J104" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -8732,9 +8770,9 @@
       <c r="F105" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -8753,17 +8791,17 @@
       <c r="F106" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H106" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I106" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -8782,11 +8820,11 @@
       <c r="F107" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K107" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -8805,10 +8843,10 @@
       <c r="F108" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -8827,13 +8865,13 @@
       <c r="F109" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="I109" s="1"/>
-      <c r="K109" s="1"/>
-    </row>
-    <row r="110" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J109" s="1"/>
+      <c r="L109" s="1"/>
+    </row>
+    <row r="110" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -8852,15 +8890,15 @@
       <c r="F110" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="H110" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I110" s="1"/>
-      <c r="K110" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J110" s="1"/>
+      <c r="L110" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -8879,12 +8917,12 @@
       <c r="F111" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -8903,14 +8941,14 @@
       <c r="F112" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="H112" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I112" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J112" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -8929,12 +8967,12 @@
       <c r="F113" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="H113" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -8953,12 +8991,12 @@
       <c r="F114" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="H114" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -8977,12 +9015,12 @@
       <c r="F115" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="H115" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -9001,12 +9039,12 @@
       <c r="F116" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="H116" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -9025,14 +9063,15 @@
       <c r="F117" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G117" s="4"/>
+      <c r="H117" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="I117" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J117" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -9051,12 +9090,12 @@
       <c r="F118" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="H118" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J118" s="1"/>
+    </row>
+    <row r="119" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -9075,10 +9114,10 @@
       <c r="F119" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="I119" s="1"/>
-      <c r="K119" s="1"/>
-    </row>
-    <row r="120" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J119" s="1"/>
+      <c r="L119" s="1"/>
+    </row>
+    <row r="120" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>120</v>
       </c>
@@ -9097,12 +9136,12 @@
       <c r="F120" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="H120" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -9121,18 +9160,18 @@
       <c r="F121" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="H121" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="H121" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I121" s="1"/>
-      <c r="K121" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I121" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121" s="1"/>
+      <c r="L121" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -9151,12 +9190,12 @@
       <c r="F122" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="H122" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J122" s="1"/>
+    </row>
+    <row r="123" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>123</v>
       </c>
@@ -9175,12 +9214,12 @@
       <c r="F123" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="H123" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J123" s="1"/>
+    </row>
+    <row r="124" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>124</v>
       </c>
@@ -9199,15 +9238,15 @@
       <c r="F124" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="H124" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K124" s="1"/>
-    </row>
-    <row r="125" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K124" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L124" s="1"/>
+    </row>
+    <row r="125" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>125</v>
       </c>
@@ -9226,12 +9265,13 @@
       <c r="F125" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G125" s="21" t="s">
+      <c r="G125" s="4"/>
+      <c r="H125" s="21" t="s">
         <v>1844</v>
       </c>
-      <c r="J125" s="1"/>
-    </row>
-    <row r="126" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K125" s="1"/>
+    </row>
+    <row r="126" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>126</v>
       </c>
@@ -9250,15 +9290,15 @@
       <c r="F126" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="H126" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I126" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J126" s="1"/>
-    </row>
-    <row r="127" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J126" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K126" s="1"/>
+    </row>
+    <row r="127" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>127</v>
       </c>
@@ -9277,14 +9317,14 @@
       <c r="F127" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="H127" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="I127" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J127" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>128</v>
       </c>
@@ -9303,16 +9343,16 @@
       <c r="F128" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="H128" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="H128" s="1"/>
-      <c r="J128" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K128" s="1"/>
-    </row>
-    <row r="129" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I128" s="1"/>
+      <c r="K128" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L128" s="1"/>
+    </row>
+    <row r="129" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>129</v>
       </c>
@@ -9331,15 +9371,15 @@
       <c r="F129" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="H129" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K129" s="1"/>
-    </row>
-    <row r="130" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K129" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L129" s="1"/>
+    </row>
+    <row r="130" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>130</v>
       </c>
@@ -9359,7 +9399,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>131</v>
       </c>
@@ -9378,12 +9418,12 @@
       <c r="F131" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="H131" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="K131" s="1"/>
-    </row>
-    <row r="132" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L131" s="1"/>
+    </row>
+    <row r="132" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>132</v>
       </c>
@@ -9402,12 +9442,12 @@
       <c r="F132" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="H132" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="K132" s="1"/>
-    </row>
-    <row r="133" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L132" s="1"/>
+    </row>
+    <row r="133" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -9426,15 +9466,15 @@
       <c r="F133" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="H133" s="1"/>
-      <c r="I133" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="I133" s="1"/>
       <c r="J133" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K133" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>134</v>
       </c>
@@ -9453,12 +9493,12 @@
       <c r="F134" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="H134" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="H134" s="1"/>
-    </row>
-    <row r="135" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>135</v>
       </c>
@@ -9477,14 +9517,14 @@
       <c r="F135" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="H135" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="K135" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L135" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>136</v>
       </c>
@@ -9503,14 +9543,15 @@
       <c r="F136" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="G136" s="5"/>
+      <c r="H136" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H136" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I136" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>137</v>
       </c>
@@ -9530,7 +9571,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -9549,11 +9590,11 @@
       <c r="F138" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="H138" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>139</v>
       </c>
@@ -9572,14 +9613,14 @@
       <c r="F139" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="H139" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I139" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J139" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>140</v>
       </c>
@@ -9598,11 +9639,11 @@
       <c r="F140" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="H140" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -9621,9 +9662,9 @@
       <c r="F141" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="K141" s="1"/>
-    </row>
-    <row r="142" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L141" s="1"/>
+    </row>
+    <row r="142" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>142</v>
       </c>
@@ -9642,12 +9683,12 @@
       <c r="F142" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="H142" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="K142" s="1"/>
-    </row>
-    <row r="143" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L142" s="1"/>
+    </row>
+    <row r="143" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>143</v>
       </c>
@@ -9666,14 +9707,14 @@
       <c r="F143" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="H143" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K143" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L143" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>144</v>
       </c>
@@ -9693,7 +9734,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>145</v>
       </c>
@@ -9712,11 +9753,11 @@
       <c r="F145" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="H145" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>146</v>
       </c>
@@ -9735,11 +9776,11 @@
       <c r="F146" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="H146" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>147</v>
       </c>
@@ -9758,14 +9799,14 @@
       <c r="F147" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="H147" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="K147" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L147" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>148</v>
       </c>
@@ -9784,11 +9825,11 @@
       <c r="F148" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="H148" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>149</v>
       </c>
@@ -9804,11 +9845,11 @@
       <c r="E149" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K149" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -9827,15 +9868,15 @@
       <c r="F150" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="H150" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="I150" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J150" s="1"/>
-    </row>
-    <row r="151" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J150" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K150" s="1"/>
+    </row>
+    <row r="151" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>151</v>
       </c>
@@ -9854,11 +9895,11 @@
       <c r="F151" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="H151" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -9877,11 +9918,11 @@
       <c r="F152" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="K152" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L152" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -9900,11 +9941,11 @@
       <c r="F153" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="H153" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>154</v>
       </c>
@@ -9923,14 +9964,15 @@
       <c r="F154" s="21" t="s">
         <v>1848</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="G154" s="21"/>
+      <c r="H154" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I154" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J154" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>155</v>
       </c>
@@ -9949,11 +9991,11 @@
       <c r="F155" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="K155" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L155" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>156</v>
       </c>
@@ -9972,11 +10014,11 @@
       <c r="F156" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="H156" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>157</v>
       </c>
@@ -9995,11 +10037,11 @@
       <c r="F157" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="H157" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>158</v>
       </c>
@@ -10018,14 +10060,14 @@
       <c r="F158" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="H158" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K158" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -10044,14 +10086,14 @@
       <c r="F159" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="H159" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="K159" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L159" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -10070,13 +10112,13 @@
       <c r="F160" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H160" s="1"/>
-      <c r="J160" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K160" s="1"/>
-    </row>
-    <row r="161" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I160" s="1"/>
+      <c r="K160" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L160" s="1"/>
+    </row>
+    <row r="161" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -10095,11 +10137,11 @@
       <c r="F161" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="H161" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>162</v>
       </c>
@@ -10118,11 +10160,11 @@
       <c r="F162" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="H162" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>163</v>
       </c>
@@ -10141,11 +10183,11 @@
       <c r="F163" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="H163" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -10164,12 +10206,12 @@
       <c r="F164" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="H164" s="1"/>
-      <c r="I164" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I164" s="1"/>
+      <c r="J164" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -10188,14 +10230,14 @@
       <c r="F165" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G165" s="1" t="s">
+      <c r="H165" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="H165" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I165" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>166</v>
       </c>
@@ -10214,14 +10256,14 @@
       <c r="F166" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="G166" s="1" t="s">
+      <c r="H166" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="K166" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L166" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>167</v>
       </c>
@@ -10240,12 +10282,12 @@
       <c r="F167" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="H167" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I167" s="1"/>
-    </row>
-    <row r="168" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J167" s="1"/>
+    </row>
+    <row r="168" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>168</v>
       </c>
@@ -10264,14 +10306,14 @@
       <c r="F168" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="H168" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="J168" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K168" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>169</v>
       </c>
@@ -10290,11 +10332,11 @@
       <c r="F169" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="H169" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>170</v>
       </c>
@@ -10313,15 +10355,15 @@
       <c r="F170" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="H170" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="I170" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K170" s="1"/>
-    </row>
-    <row r="171" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J170" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L170" s="1"/>
+    </row>
+    <row r="171" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -10340,14 +10382,14 @@
       <c r="F171" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G171" s="1" t="s">
+      <c r="H171" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I171" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J171" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>172</v>
       </c>
@@ -10367,7 +10409,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>173</v>
       </c>
@@ -10387,7 +10429,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>174</v>
       </c>
@@ -10406,13 +10448,13 @@
       <c r="F174" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I174" s="1"/>
-      <c r="J174" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K174" s="1"/>
-    </row>
-    <row r="175" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J174" s="1"/>
+      <c r="K174" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L174" s="1"/>
+    </row>
+    <row r="175" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>175</v>
       </c>
@@ -10431,12 +10473,12 @@
       <c r="F175" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="I175" s="1"/>
-      <c r="K175" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J175" s="1"/>
+      <c r="L175" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>176</v>
       </c>
@@ -10455,12 +10497,13 @@
       <c r="F176" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="I176" s="1"/>
-      <c r="K176" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="G176" s="4"/>
+      <c r="J176" s="1"/>
+      <c r="L176" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>177</v>
       </c>
@@ -10479,9 +10522,9 @@
       <c r="F177" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J177" s="1"/>
+    </row>
+    <row r="178" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>178</v>
       </c>
@@ -10500,12 +10543,12 @@
       <c r="F178" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="H178" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J178" s="1"/>
+    </row>
+    <row r="179" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>179</v>
       </c>
@@ -10524,14 +10567,14 @@
       <c r="F179" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="H179" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I179" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J179" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>180</v>
       </c>
@@ -10550,14 +10593,14 @@
       <c r="F180" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="H180" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="I180" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J180" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>181</v>
       </c>
@@ -10576,12 +10619,12 @@
       <c r="F181" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G181" s="21" t="s">
+      <c r="H181" s="21" t="s">
         <v>1849</v>
       </c>
-      <c r="I181" s="1"/>
-    </row>
-    <row r="182" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J181" s="1"/>
+    </row>
+    <row r="182" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>182</v>
       </c>
@@ -10601,7 +10644,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>183</v>
       </c>
@@ -10620,14 +10663,14 @@
       <c r="F183" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="H183" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K183" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>184</v>
       </c>
@@ -10646,9 +10689,9 @@
       <c r="F184" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K184" s="1"/>
-    </row>
-    <row r="185" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L184" s="1"/>
+    </row>
+    <row r="185" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>185</v>
       </c>
@@ -10667,14 +10710,14 @@
       <c r="F185" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="H185" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="H185" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I185" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>186</v>
       </c>
@@ -10693,12 +10736,12 @@
       <c r="F186" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="H186" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J186" s="1"/>
-    </row>
-    <row r="187" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K186" s="1"/>
+    </row>
+    <row r="187" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>187</v>
       </c>
@@ -10717,14 +10760,14 @@
       <c r="F187" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G187" s="1" t="s">
+      <c r="H187" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H187" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I187" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>188</v>
       </c>
@@ -10743,17 +10786,17 @@
       <c r="F188" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="G188" s="1" t="s">
+      <c r="H188" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="I188" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K188" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J188" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L188" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>189</v>
       </c>
@@ -10772,11 +10815,11 @@
       <c r="F189" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="H189" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>190</v>
       </c>
@@ -10792,14 +10835,14 @@
       <c r="E190" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="K190" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L190" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>191</v>
       </c>
@@ -10818,18 +10861,18 @@
       <c r="F191" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G191" s="21" t="s">
+      <c r="H191" s="21" t="s">
         <v>1849</v>
       </c>
-      <c r="I191" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="J191" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K191" s="1"/>
-    </row>
-    <row r="192" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K191" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L191" s="1"/>
+    </row>
+    <row r="192" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>192</v>
       </c>
@@ -10848,14 +10891,14 @@
       <c r="F192" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G192" s="1" t="s">
+      <c r="H192" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K192" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L192" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>193</v>
       </c>
@@ -10874,11 +10917,11 @@
       <c r="F193" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G193" s="1" t="s">
+      <c r="H193" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>194</v>
       </c>
@@ -10897,12 +10940,12 @@
       <c r="F194" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="H194" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K194" s="1"/>
-    </row>
-    <row r="195" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I194" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L194" s="1"/>
+    </row>
+    <row r="195" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>195</v>
       </c>
@@ -10921,14 +10964,14 @@
       <c r="F195" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="H195" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="K195" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L195" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>196</v>
       </c>
@@ -10947,15 +10990,15 @@
       <c r="F196" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="H196" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="I196" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K196" s="1"/>
-    </row>
-    <row r="197" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J196" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L196" s="1"/>
+    </row>
+    <row r="197" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>197</v>
       </c>
@@ -10974,17 +11017,17 @@
       <c r="F197" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="H197" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H197" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K197" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I197" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>198</v>
       </c>
@@ -11003,13 +11046,13 @@
       <c r="F198" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G198" s="1" t="s">
+      <c r="H198" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H198" s="1"/>
-      <c r="K198" s="1"/>
-    </row>
-    <row r="199" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I198" s="1"/>
+      <c r="L198" s="1"/>
+    </row>
+    <row r="199" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>199</v>
       </c>
@@ -11028,10 +11071,10 @@
       <c r="F199" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="H199" s="1"/>
-      <c r="K199" s="1"/>
-    </row>
-    <row r="200" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I199" s="1"/>
+      <c r="L199" s="1"/>
+    </row>
+    <row r="200" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>200</v>
       </c>
@@ -11050,16 +11093,16 @@
       <c r="F200" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="H200" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H200" s="1"/>
-      <c r="I200" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K200" s="1"/>
-    </row>
-    <row r="201" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I200" s="1"/>
+      <c r="J200" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L200" s="1"/>
+    </row>
+    <row r="201" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>201</v>
       </c>
@@ -11078,14 +11121,14 @@
       <c r="F201" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="H201" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K201" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L201" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>202</v>
       </c>
@@ -11104,17 +11147,17 @@
       <c r="F202" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="G202" s="1" t="s">
+      <c r="H202" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="H202" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K202" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I202" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>203</v>
       </c>
@@ -11133,17 +11176,17 @@
       <c r="F203" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="H203" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H203" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K203" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I203" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>204</v>
       </c>
@@ -11162,12 +11205,12 @@
       <c r="F204" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="H204" s="1"/>
-      <c r="K204" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I204" s="1"/>
+      <c r="L204" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>205</v>
       </c>
@@ -11186,17 +11229,17 @@
       <c r="F205" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G205" s="1" t="s">
+      <c r="H205" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H205" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K205" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I205" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>206</v>
       </c>
@@ -11215,17 +11258,17 @@
       <c r="F206" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G206" s="1" t="s">
+      <c r="H206" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H206" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K206" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I206" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>207</v>
       </c>
@@ -11244,17 +11287,17 @@
       <c r="F207" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G207" s="1" t="s">
+      <c r="H207" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H207" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K207" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I207" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>208</v>
       </c>
@@ -11273,14 +11316,14 @@
       <c r="F208" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G208" s="1" t="s">
+      <c r="H208" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H208" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I208" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>209</v>
       </c>
@@ -11299,14 +11342,14 @@
       <c r="F209" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="H209" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K209" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I209" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>210</v>
       </c>
@@ -11325,15 +11368,15 @@
       <c r="F210" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G210" s="1" t="s">
+      <c r="H210" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H210" s="1"/>
-      <c r="K210" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I210" s="1"/>
+      <c r="L210" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>211</v>
       </c>
@@ -11352,18 +11395,18 @@
       <c r="F211" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="G211" s="1" t="s">
+      <c r="H211" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="H211" s="1"/>
-      <c r="J211" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K211" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I211" s="1"/>
+      <c r="K211" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>212</v>
       </c>
@@ -11382,15 +11425,15 @@
       <c r="F212" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G212" s="1" t="s">
+      <c r="H212" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H212" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K212" s="1"/>
-    </row>
-    <row r="213" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I212" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L212" s="1"/>
+    </row>
+    <row r="213" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>213</v>
       </c>
@@ -11409,15 +11452,15 @@
       <c r="F213" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G213" s="1" t="s">
+      <c r="H213" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I213" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K213" s="1"/>
-    </row>
-    <row r="214" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J213" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L213" s="1"/>
+    </row>
+    <row r="214" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>214</v>
       </c>
@@ -11437,7 +11480,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>215</v>
       </c>
@@ -11456,14 +11499,14 @@
       <c r="F215" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G215" s="1" t="s">
+      <c r="H215" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I215" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J215" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>216</v>
       </c>
@@ -11482,15 +11525,15 @@
       <c r="F216" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="G216" s="1" t="s">
+      <c r="H216" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="I216" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J216" s="1"/>
-    </row>
-    <row r="217" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J216" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K216" s="1"/>
+    </row>
+    <row r="217" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>217</v>
       </c>
@@ -11509,14 +11552,14 @@
       <c r="F217" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="H217" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="J217" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K217" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>218</v>
       </c>
@@ -11535,14 +11578,15 @@
       <c r="F218" s="21" t="s">
         <v>1850</v>
       </c>
-      <c r="G218" s="1" t="s">
+      <c r="G218" s="21"/>
+      <c r="H218" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K218" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L218" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>219</v>
       </c>
@@ -11562,7 +11606,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>220</v>
       </c>
@@ -11581,14 +11625,14 @@
       <c r="F220" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="H220" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J220" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I220" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K220" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>221</v>
       </c>
@@ -11607,17 +11651,17 @@
       <c r="F221" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="H221" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="H221" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J221" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I221" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K221" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>222</v>
       </c>
@@ -11636,11 +11680,11 @@
       <c r="F222" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="K222" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L222" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>223</v>
       </c>
@@ -11659,14 +11703,14 @@
       <c r="F223" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G223" s="1" t="s">
+      <c r="H223" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K223" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L223" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>224</v>
       </c>
@@ -11685,14 +11729,14 @@
       <c r="F224" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="H224" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K224" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L224" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>225</v>
       </c>
@@ -11711,11 +11755,11 @@
       <c r="F225" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="H225" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>226</v>
       </c>
@@ -11735,7 +11779,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>227</v>
       </c>
@@ -11754,11 +11798,11 @@
       <c r="F227" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G227" s="21" t="s">
+      <c r="H227" s="21" t="s">
         <v>1849</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>228</v>
       </c>
@@ -11777,9 +11821,9 @@
       <c r="F228" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="J228" s="1"/>
-    </row>
-    <row r="229" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K228" s="1"/>
+    </row>
+    <row r="229" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>229</v>
       </c>
@@ -11798,14 +11842,14 @@
       <c r="F229" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G229" s="1" t="s">
+      <c r="H229" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I229" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J229" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>230</v>
       </c>
@@ -11824,12 +11868,12 @@
       <c r="F230" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="G230" s="1" t="s">
+      <c r="H230" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J230" s="1"/>
-    </row>
-    <row r="231" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K230" s="1"/>
+    </row>
+    <row r="231" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>231</v>
       </c>
@@ -11848,11 +11892,11 @@
       <c r="F231" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G231" s="1" t="s">
+      <c r="H231" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>232</v>
       </c>
@@ -11871,14 +11915,14 @@
       <c r="F232" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G232" s="1" t="s">
+      <c r="H232" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I232" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J232" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>233</v>
       </c>
@@ -11897,11 +11941,11 @@
       <c r="F233" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K233" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>234</v>
       </c>
@@ -11920,11 +11964,11 @@
       <c r="F234" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G234" s="1" t="s">
+      <c r="H234" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>235</v>
       </c>
@@ -11940,11 +11984,11 @@
       <c r="E235" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K235" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>236</v>
       </c>
@@ -11963,11 +12007,11 @@
       <c r="F236" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="G236" s="1" t="s">
+      <c r="H236" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>237</v>
       </c>
@@ -11986,12 +12030,12 @@
       <c r="F237" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G237" s="1" t="s">
+      <c r="H237" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J237" s="1"/>
-    </row>
-    <row r="238" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K237" s="1"/>
+    </row>
+    <row r="238" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>238</v>
       </c>
@@ -12011,7 +12055,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>239</v>
       </c>
@@ -12030,14 +12074,14 @@
       <c r="F239" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G239" s="1" t="s">
+      <c r="H239" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K239" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L239" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>240</v>
       </c>
@@ -12056,14 +12100,14 @@
       <c r="F240" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="G240" s="1" t="s">
+      <c r="H240" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="I240" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J240" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>241</v>
       </c>
@@ -12082,12 +12126,12 @@
       <c r="F241" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="I241" s="1"/>
-      <c r="K241" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J241" s="1"/>
+      <c r="L241" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>242</v>
       </c>
@@ -12106,11 +12150,11 @@
       <c r="F242" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="K242" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L242" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>243</v>
       </c>
@@ -12129,15 +12173,15 @@
       <c r="F243" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="G243" s="1" t="s">
+      <c r="H243" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="H243" s="1"/>
-      <c r="K243" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I243" s="1"/>
+      <c r="L243" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>244</v>
       </c>
@@ -12156,17 +12200,17 @@
       <c r="F244" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="G244" s="1" t="s">
+      <c r="H244" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="H244" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K244" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I244" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>245</v>
       </c>
@@ -12185,17 +12229,17 @@
       <c r="F245" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G245" s="1" t="s">
+      <c r="H245" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H245" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K245" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>246</v>
       </c>
@@ -12214,17 +12258,17 @@
       <c r="F246" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G246" s="1" t="s">
+      <c r="H246" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H246" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K246" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I246" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>247</v>
       </c>
@@ -12243,15 +12287,15 @@
       <c r="F247" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G247" s="1" t="s">
+      <c r="H247" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H247" s="1"/>
-      <c r="K247" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I247" s="1"/>
+      <c r="L247" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>248</v>
       </c>
@@ -12270,10 +12314,10 @@
       <c r="F248" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H248" s="1"/>
-      <c r="K248" s="1"/>
-    </row>
-    <row r="249" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I248" s="1"/>
+      <c r="L248" s="1"/>
+    </row>
+    <row r="249" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>249</v>
       </c>
@@ -12292,10 +12336,10 @@
       <c r="F249" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="H249" s="1"/>
-      <c r="K249" s="1"/>
-    </row>
-    <row r="250" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I249" s="1"/>
+      <c r="L249" s="1"/>
+    </row>
+    <row r="250" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>250</v>
       </c>
@@ -12314,14 +12358,14 @@
       <c r="F250" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G250" s="1" t="s">
+      <c r="H250" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K250" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>251</v>
       </c>
@@ -12338,7 +12382,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>252</v>
       </c>
@@ -12357,11 +12401,11 @@
       <c r="F252" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G252" s="1" t="s">
+      <c r="H252" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>253</v>
       </c>
@@ -12380,15 +12424,15 @@
       <c r="F253" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G253" s="21" t="s">
+      <c r="H253" s="21" t="s">
         <v>1849</v>
       </c>
-      <c r="I253" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J253" s="1"/>
-    </row>
-    <row r="254" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J253" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K253" s="1"/>
+    </row>
+    <row r="254" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>254</v>
       </c>
@@ -12407,14 +12451,14 @@
       <c r="F254" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="G254" s="1" t="s">
+      <c r="H254" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K254" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>255</v>
       </c>
@@ -12433,11 +12477,11 @@
       <c r="F255" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G255" s="1" t="s">
+      <c r="H255" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>256</v>
       </c>
@@ -12456,14 +12500,14 @@
       <c r="F256" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G256" s="1" t="s">
+      <c r="H256" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I256" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J256" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>257</v>
       </c>
@@ -12482,14 +12526,14 @@
       <c r="F257" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H257" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K257" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L257" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>258</v>
       </c>
@@ -12508,17 +12552,17 @@
       <c r="F258" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G258" s="1" t="s">
+      <c r="H258" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H258" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K258" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L258" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>259</v>
       </c>
@@ -12537,17 +12581,17 @@
       <c r="F259" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G259" s="1" t="s">
+      <c r="H259" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H259" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K259" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I259" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L259" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>260</v>
       </c>
@@ -12566,17 +12610,17 @@
       <c r="F260" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G260" s="1" t="s">
+      <c r="H260" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H260" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K260" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I260" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L260" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>261</v>
       </c>
@@ -12595,16 +12639,16 @@
       <c r="F261" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G261" s="1" t="s">
+      <c r="H261" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H261" s="1"/>
-      <c r="J261" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K261" s="1"/>
-    </row>
-    <row r="262" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I261" s="1"/>
+      <c r="K261" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L261" s="1"/>
+    </row>
+    <row r="262" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>262</v>
       </c>
@@ -12623,14 +12667,14 @@
       <c r="F262" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="G262" s="1" t="s">
+      <c r="H262" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="K262" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L262" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>263</v>
       </c>
@@ -12649,15 +12693,15 @@
       <c r="F263" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="G263" s="1" t="s">
+      <c r="H263" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="I263" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J263" s="1"/>
-    </row>
-    <row r="264" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J263" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K263" s="1"/>
+    </row>
+    <row r="264" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>264</v>
       </c>
@@ -12676,11 +12720,11 @@
       <c r="F264" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="I264" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J264" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>265</v>
       </c>
@@ -12699,11 +12743,11 @@
       <c r="F265" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="I265" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J265" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>266</v>
       </c>
@@ -12722,11 +12766,11 @@
       <c r="F266" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="I266" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J266" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>267</v>
       </c>
@@ -12745,11 +12789,11 @@
       <c r="F267" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="I267" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J267" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>268</v>
       </c>
@@ -12768,11 +12812,12 @@
       <c r="F268" s="4" t="s">
         <v>1852</v>
       </c>
-      <c r="I268" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="G268" s="4"/>
+      <c r="J268" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>269</v>
       </c>
@@ -12791,11 +12836,11 @@
       <c r="F269" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="I269" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J269" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>270</v>
       </c>
@@ -12814,14 +12859,14 @@
       <c r="F270" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="I270" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J270" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J270" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K270" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>271</v>
       </c>
@@ -12840,14 +12885,14 @@
       <c r="F271" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="G271" s="1" t="s">
+      <c r="H271" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="I271" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J271" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>272</v>
       </c>
@@ -12866,11 +12911,11 @@
       <c r="F272" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="I272" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J272" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>273</v>
       </c>
@@ -12889,14 +12934,14 @@
       <c r="F273" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="G273" s="1" t="s">
+      <c r="H273" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="K273" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L273" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>274</v>
       </c>
@@ -12915,14 +12960,14 @@
       <c r="F274" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="G274" s="1" t="s">
+      <c r="H274" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="K274" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L274" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>275</v>
       </c>
@@ -12941,16 +12986,16 @@
       <c r="F275" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="G275" s="1" t="s">
+      <c r="H275" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="H275" s="1"/>
-      <c r="I275" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K275" s="1"/>
-    </row>
-    <row r="276" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I275" s="1"/>
+      <c r="J275" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L275" s="1"/>
+    </row>
+    <row r="276" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>276</v>
       </c>
@@ -12969,15 +13014,15 @@
       <c r="F276" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="H276" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="I276" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J276" s="1"/>
-    </row>
-    <row r="277" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J276" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K276" s="1"/>
+    </row>
+    <row r="277" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>277</v>
       </c>
@@ -12996,11 +13041,11 @@
       <c r="F277" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="G277" s="1" t="s">
+      <c r="H277" s="1" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>278</v>
       </c>
@@ -13019,11 +13064,11 @@
       <c r="F278" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="K278" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L278" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>279</v>
       </c>
@@ -13042,11 +13087,11 @@
       <c r="F279" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="G279" s="1" t="s">
+      <c r="H279" s="1" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>280</v>
       </c>
@@ -13065,11 +13110,11 @@
       <c r="F280" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="G280" s="1" t="s">
+      <c r="H280" s="1" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>281</v>
       </c>
@@ -13088,9 +13133,9 @@
       <c r="F281" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="J281" s="1"/>
-    </row>
-    <row r="282" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K281" s="1"/>
+    </row>
+    <row r="282" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>282</v>
       </c>
@@ -13109,12 +13154,12 @@
       <c r="F282" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="H282" s="1"/>
-      <c r="I282" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I282" s="1"/>
+      <c r="J282" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>283</v>
       </c>
@@ -13133,11 +13178,11 @@
       <c r="F283" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="K283" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L283" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>284</v>
       </c>
@@ -13156,10 +13201,10 @@
       <c r="F284" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="I284" s="1"/>
-      <c r="K284" s="1"/>
-    </row>
-    <row r="285" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J284" s="1"/>
+      <c r="L284" s="1"/>
+    </row>
+    <row r="285" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>285</v>
       </c>
@@ -13178,11 +13223,11 @@
       <c r="F285" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="I285" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J285" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>286</v>
       </c>
@@ -13201,11 +13246,11 @@
       <c r="F286" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="G286" s="1" t="s">
+      <c r="H286" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>287</v>
       </c>
@@ -13224,11 +13269,11 @@
       <c r="F287" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="K287" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L287" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>288</v>
       </c>
@@ -13247,14 +13292,14 @@
       <c r="F288" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="H288" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K288" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I288" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L288" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>289</v>
       </c>
@@ -13273,11 +13318,11 @@
       <c r="F289" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="J289" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K289" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>290</v>
       </c>
@@ -13296,11 +13341,11 @@
       <c r="F290" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="K290" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L290" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>291</v>
       </c>
@@ -13319,14 +13364,14 @@
       <c r="F291" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="J291" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K291" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K291" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L291" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>292</v>
       </c>
@@ -13345,14 +13390,14 @@
       <c r="F292" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="G292" s="1" t="s">
+      <c r="H292" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="K292" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L292" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>293</v>
       </c>
@@ -13371,14 +13416,14 @@
       <c r="F293" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="I293" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K293" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J293" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L293" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>294</v>
       </c>
@@ -13397,14 +13442,14 @@
       <c r="F294" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="J294" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K294" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K294" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L294" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>295</v>
       </c>
@@ -13423,20 +13468,20 @@
       <c r="F295" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="G295" s="1" t="s">
+      <c r="H295" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="H295" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J295" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K295" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K295" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L295" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>296</v>
       </c>
@@ -13455,15 +13500,15 @@
       <c r="F296" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="H296" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J296" s="1"/>
-      <c r="K296" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I296" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K296" s="1"/>
+      <c r="L296" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>297</v>
       </c>
@@ -13482,9 +13527,9 @@
       <c r="F297" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="J297" s="1"/>
-    </row>
-    <row r="298" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K297" s="1"/>
+    </row>
+    <row r="298" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>298</v>
       </c>
@@ -13504,7 +13549,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>299</v>
       </c>
@@ -13523,11 +13568,11 @@
       <c r="F299" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="G299" s="1" t="s">
+      <c r="H299" s="1" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>300</v>
       </c>
@@ -13547,7 +13592,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>301</v>
       </c>
@@ -13567,7 +13612,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>302</v>
       </c>
@@ -13586,11 +13631,11 @@
       <c r="F302" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="I302" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J302" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>303</v>
       </c>
@@ -13609,11 +13654,11 @@
       <c r="F303" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="G303" s="1" t="s">
+      <c r="H303" s="1" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>304</v>
       </c>
@@ -13633,7 +13678,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>305</v>
       </c>
@@ -13652,15 +13697,15 @@
       <c r="F305" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="H305" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J305" s="1"/>
-      <c r="K305" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I305" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K305" s="1"/>
+      <c r="L305" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>306</v>
       </c>
@@ -13680,7 +13725,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>307</v>
       </c>
@@ -13699,11 +13744,11 @@
       <c r="F307" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="G307" s="1" t="s">
+      <c r="H307" s="1" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>308</v>
       </c>
@@ -13722,11 +13767,11 @@
       <c r="F308" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="G308" s="1" t="s">
+      <c r="H308" s="1" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>309</v>
       </c>
@@ -13745,12 +13790,12 @@
       <c r="F309" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="I309" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J309" s="1"/>
-    </row>
-    <row r="310" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J309" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K309" s="1"/>
+    </row>
+    <row r="310" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>310</v>
       </c>
@@ -13769,12 +13814,12 @@
       <c r="F310" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="G310" s="1" t="s">
+      <c r="H310" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="I310" s="1"/>
-    </row>
-    <row r="311" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J310" s="1"/>
+    </row>
+    <row r="311" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>311</v>
       </c>
@@ -13793,14 +13838,14 @@
       <c r="F311" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="G311" s="1" t="s">
+      <c r="H311" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="H311" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I311" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>312</v>
       </c>
@@ -13820,7 +13865,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>313</v>
       </c>
@@ -13839,17 +13884,17 @@
       <c r="F313" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="G313" s="21" t="s">
+      <c r="H313" s="21" t="s">
         <v>1854</v>
       </c>
-      <c r="H313" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K313" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I313" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L313" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>314</v>
       </c>
@@ -13869,7 +13914,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>315</v>
       </c>
@@ -13888,11 +13933,11 @@
       <c r="F315" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="G315" s="1" t="s">
+      <c r="H315" s="1" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>316</v>
       </c>
@@ -13911,18 +13956,18 @@
       <c r="F316" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="G316" s="1" t="s">
+      <c r="H316" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="H316" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I316" s="1"/>
-      <c r="K316" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I316" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J316" s="1"/>
+      <c r="L316" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>317</v>
       </c>
@@ -13941,14 +13986,14 @@
       <c r="F317" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="H317" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K317" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I317" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L317" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>318</v>
       </c>
@@ -13967,12 +14012,12 @@
       <c r="F318" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="I318" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K318" s="1"/>
-    </row>
-    <row r="319" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J318" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L318" s="1"/>
+    </row>
+    <row r="319" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>319</v>
       </c>
@@ -13991,14 +14036,14 @@
       <c r="F319" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="G319" s="1" t="s">
+      <c r="H319" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="H319" s="1"/>
       <c r="I319" s="1"/>
-      <c r="K319" s="1"/>
-    </row>
-    <row r="320" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J319" s="1"/>
+      <c r="L319" s="1"/>
+    </row>
+    <row r="320" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>320</v>
       </c>
@@ -14017,13 +14062,13 @@
       <c r="F320" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="G320" s="1" t="s">
+      <c r="H320" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="I320" s="1"/>
-      <c r="K320" s="1"/>
-    </row>
-    <row r="321" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J320" s="1"/>
+      <c r="L320" s="1"/>
+    </row>
+    <row r="321" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>321</v>
       </c>
@@ -14042,11 +14087,11 @@
       <c r="F321" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="I321" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J321" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>322</v>
       </c>
@@ -14065,12 +14110,12 @@
       <c r="F322" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="H322" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J322" s="1"/>
-    </row>
-    <row r="323" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I322" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K322" s="1"/>
+    </row>
+    <row r="323" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>323</v>
       </c>
@@ -14090,7 +14135,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>324</v>
       </c>
@@ -14109,10 +14154,10 @@
       <c r="F324" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="H324" s="1"/>
-      <c r="K324" s="1"/>
-    </row>
-    <row r="325" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I324" s="1"/>
+      <c r="L324" s="1"/>
+    </row>
+    <row r="325" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>325</v>
       </c>
@@ -14131,11 +14176,11 @@
       <c r="F325" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="I325" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="326" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J325" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>326</v>
       </c>
@@ -14154,12 +14199,12 @@
       <c r="F326" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="H326" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J326" s="1"/>
-    </row>
-    <row r="327" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I326" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K326" s="1"/>
+    </row>
+    <row r="327" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>327</v>
       </c>
@@ -14178,17 +14223,17 @@
       <c r="F327" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="G327" s="1" t="s">
+      <c r="H327" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="I327" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="J327" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="328" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K327" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>328</v>
       </c>
@@ -14208,7 +14253,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>329</v>
       </c>
@@ -14227,12 +14272,12 @@
       <c r="F329" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="H329" s="1"/>
-      <c r="K329" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I329" s="1"/>
+      <c r="L329" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>330</v>
       </c>
@@ -14251,17 +14296,17 @@
       <c r="F330" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="G330" s="1" t="s">
+      <c r="H330" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="H330" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K330" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I330" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L330" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>331</v>
       </c>
@@ -14280,14 +14325,14 @@
       <c r="F331" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="H331" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K331" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I331" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L331" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>332</v>
       </c>
@@ -14306,13 +14351,14 @@
       <c r="F332" s="4" t="s">
         <v>1258</v>
       </c>
-      <c r="H332" s="1"/>
-      <c r="I332" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K332" s="1"/>
-    </row>
-    <row r="333" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="G332" s="4"/>
+      <c r="I332" s="1"/>
+      <c r="J332" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L332" s="1"/>
+    </row>
+    <row r="333" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>333</v>
       </c>
@@ -14331,14 +14377,14 @@
       <c r="F333" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="H333" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K333" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I333" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L333" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>334</v>
       </c>
@@ -14357,11 +14403,11 @@
       <c r="F334" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="J334" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="335" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K334" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>335</v>
       </c>
@@ -14380,15 +14426,15 @@
       <c r="F335" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="G335" s="1" t="s">
+      <c r="H335" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="H335" s="1"/>
-      <c r="I335" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="336" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I335" s="1"/>
+      <c r="J335" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>336</v>
       </c>
@@ -14407,11 +14453,11 @@
       <c r="F336" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="K336" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L336" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>337</v>
       </c>
@@ -14430,11 +14476,11 @@
       <c r="F337" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="K337" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L337" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>338</v>
       </c>
@@ -14453,14 +14499,14 @@
       <c r="F338" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="H338" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K338" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I338" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L338" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>339</v>
       </c>
@@ -14480,7 +14526,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>340</v>
       </c>
@@ -14499,14 +14545,14 @@
       <c r="F340" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="H340" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K340" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I340" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L340" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>341</v>
       </c>
@@ -14525,15 +14571,15 @@
       <c r="F341" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="H341" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I341" s="1"/>
-      <c r="K341" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="342" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I341" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J341" s="1"/>
+      <c r="L341" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>342</v>
       </c>
@@ -14552,12 +14598,12 @@
       <c r="F342" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="G342" s="1" t="s">
+      <c r="H342" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="I342" s="1"/>
-    </row>
-    <row r="343" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J342" s="1"/>
+    </row>
+    <row r="343" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>343</v>
       </c>
@@ -14576,11 +14622,11 @@
       <c r="F343" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="I343" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="344" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J343" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>344</v>
       </c>
@@ -14599,11 +14645,11 @@
       <c r="F344" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="G344" s="1" t="s">
+      <c r="H344" s="1" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>345</v>
       </c>
@@ -14622,14 +14668,14 @@
       <c r="F345" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="G345" s="1" t="s">
+      <c r="H345" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="K345" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L345" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>346</v>
       </c>
@@ -14648,14 +14694,14 @@
       <c r="F346" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="H346" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K346" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="347" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I346" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L346" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>347</v>
       </c>
@@ -14674,12 +14720,12 @@
       <c r="F347" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="H347" s="1"/>
-      <c r="K347" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I347" s="1"/>
+      <c r="L347" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>348</v>
       </c>
@@ -14698,17 +14744,17 @@
       <c r="F348" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="G348" s="1" t="s">
+      <c r="H348" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="H348" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K348" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I348" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L348" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>349</v>
       </c>
@@ -14727,18 +14773,18 @@
       <c r="F349" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="G349" s="1" t="s">
+      <c r="H349" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="H349" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I349" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K349" s="1"/>
-    </row>
-    <row r="350" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I349" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J349" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L349" s="1"/>
+    </row>
+    <row r="350" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>350</v>
       </c>
@@ -14757,14 +14803,14 @@
       <c r="F350" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="G350" s="1" t="s">
+      <c r="H350" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="J350" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="351" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K350" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>351</v>
       </c>
@@ -14783,14 +14829,14 @@
       <c r="F351" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="G351" s="1" t="s">
+      <c r="H351" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="H351" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I351" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>352</v>
       </c>
@@ -14809,11 +14855,11 @@
       <c r="F352" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="I352" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="353" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J352" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>353</v>
       </c>
@@ -14832,20 +14878,20 @@
       <c r="F353" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="G353" s="1" t="s">
+      <c r="H353" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="H353" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I353" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K353" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J353" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L353" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>354</v>
       </c>
@@ -14864,14 +14910,15 @@
       <c r="F354" s="21" t="s">
         <v>1851</v>
       </c>
-      <c r="H354" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K354" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="G354" s="21"/>
+      <c r="I354" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L354" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>355</v>
       </c>
@@ -14890,15 +14937,15 @@
       <c r="F355" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="G355" s="1" t="s">
+      <c r="H355" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="H355" s="1"/>
-      <c r="K355" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I355" s="1"/>
+      <c r="L355" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>356</v>
       </c>
@@ -14917,17 +14964,17 @@
       <c r="F356" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="G356" s="1" t="s">
+      <c r="H356" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="H356" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K356" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I356" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L356" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>357</v>
       </c>
@@ -14946,14 +14993,14 @@
       <c r="F357" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="G357" s="1" t="s">
+      <c r="H357" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="H357" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I357" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>358</v>
       </c>
@@ -14966,10 +15013,10 @@
       <c r="D358" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I358" s="1"/>
-      <c r="K358" s="1"/>
-    </row>
-    <row r="359" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J358" s="1"/>
+      <c r="L358" s="1"/>
+    </row>
+    <row r="359" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>359</v>
       </c>
@@ -14982,9 +15029,9 @@
       <c r="D359" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I359" s="1"/>
-    </row>
-    <row r="360" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J359" s="1"/>
+    </row>
+    <row r="360" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>360</v>
       </c>
@@ -14997,9 +15044,9 @@
       <c r="D360" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="K360" s="1"/>
-    </row>
-    <row r="361" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L360" s="1"/>
+    </row>
+    <row r="361" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>361</v>
       </c>
@@ -15013,7 +15060,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>362</v>
       </c>
@@ -15027,7 +15074,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>363</v>
       </c>
@@ -15040,9 +15087,9 @@
       <c r="D363" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="K363" s="1"/>
-    </row>
-    <row r="364" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L363" s="1"/>
+    </row>
+    <row r="364" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>364</v>
       </c>
@@ -15055,9 +15102,9 @@
       <c r="D364" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="K364" s="1"/>
-    </row>
-    <row r="365" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L364" s="1"/>
+    </row>
+    <row r="365" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>365</v>
       </c>
@@ -15070,10 +15117,10 @@
       <c r="D365" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="H365" s="1"/>
-      <c r="K365" s="1"/>
-    </row>
-    <row r="366" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I365" s="1"/>
+      <c r="L365" s="1"/>
+    </row>
+    <row r="366" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>366</v>
       </c>
@@ -15086,9 +15133,9 @@
       <c r="D366" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="K366" s="1"/>
-    </row>
-    <row r="367" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L366" s="1"/>
+    </row>
+    <row r="367" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>367</v>
       </c>
@@ -15102,7 +15149,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>368</v>
       </c>
@@ -15116,7 +15163,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="369" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>369</v>
       </c>
@@ -15129,9 +15176,9 @@
       <c r="D369" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="K369" s="1"/>
-    </row>
-    <row r="370" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L369" s="1"/>
+    </row>
+    <row r="370" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>370</v>
       </c>
@@ -15144,9 +15191,9 @@
       <c r="D370" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="K370" s="1"/>
-    </row>
-    <row r="371" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L370" s="1"/>
+    </row>
+    <row r="371" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>371</v>
       </c>
@@ -15160,7 +15207,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>372</v>
       </c>
@@ -15174,7 +15221,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="373" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>373</v>
       </c>
@@ -15188,7 +15235,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="374" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>374</v>
       </c>
@@ -15202,7 +15249,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>375</v>
       </c>
@@ -15215,9 +15262,9 @@
       <c r="D375" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="K375" s="1"/>
-    </row>
-    <row r="376" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L375" s="1"/>
+    </row>
+    <row r="376" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>376</v>
       </c>
@@ -15231,7 +15278,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="377" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>377</v>
       </c>
@@ -15244,9 +15291,9 @@
       <c r="D377" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="H377" s="1"/>
-    </row>
-    <row r="378" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I377" s="1"/>
+    </row>
+    <row r="378" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>378</v>
       </c>
@@ -15259,9 +15306,9 @@
       <c r="D378" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="H378" s="1"/>
-    </row>
-    <row r="379" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I378" s="1"/>
+    </row>
+    <row r="379" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>379</v>
       </c>
@@ -15274,9 +15321,9 @@
       <c r="D379" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I379" s="1"/>
-    </row>
-    <row r="380" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J379" s="1"/>
+    </row>
+    <row r="380" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>380</v>
       </c>
@@ -15289,9 +15336,9 @@
       <c r="D380" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I380" s="1"/>
-    </row>
-    <row r="381" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J380" s="1"/>
+    </row>
+    <row r="381" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>381</v>
       </c>
@@ -15304,9 +15351,9 @@
       <c r="D381" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I381" s="1"/>
-    </row>
-    <row r="382" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J381" s="1"/>
+    </row>
+    <row r="382" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>382</v>
       </c>
@@ -15319,9 +15366,9 @@
       <c r="D382" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I382" s="1"/>
-    </row>
-    <row r="383" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J382" s="1"/>
+    </row>
+    <row r="383" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>383</v>
       </c>
@@ -15334,9 +15381,9 @@
       <c r="D383" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I383" s="1"/>
-    </row>
-    <row r="384" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J383" s="1"/>
+    </row>
+    <row r="384" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>384</v>
       </c>
@@ -15349,9 +15396,9 @@
       <c r="D384" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I384" s="1"/>
-    </row>
-    <row r="385" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J384" s="1"/>
+    </row>
+    <row r="385" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>385</v>
       </c>
@@ -15364,9 +15411,9 @@
       <c r="D385" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I385" s="1"/>
-    </row>
-    <row r="386" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J385" s="1"/>
+    </row>
+    <row r="386" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>386</v>
       </c>
@@ -15379,9 +15426,9 @@
       <c r="D386" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I386" s="1"/>
-    </row>
-    <row r="387" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J386" s="1"/>
+    </row>
+    <row r="387" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>387</v>
       </c>
@@ -15394,9 +15441,9 @@
       <c r="D387" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="K387" s="1"/>
-    </row>
-    <row r="388" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L387" s="1"/>
+    </row>
+    <row r="388" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>388</v>
       </c>
@@ -15409,9 +15456,9 @@
       <c r="D388" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I388" s="1"/>
-    </row>
-    <row r="389" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J388" s="1"/>
+    </row>
+    <row r="389" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>389</v>
       </c>
@@ -15424,9 +15471,9 @@
       <c r="D389" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="K389" s="1"/>
-    </row>
-    <row r="390" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L389" s="1"/>
+    </row>
+    <row r="390" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>390</v>
       </c>
@@ -15440,7 +15487,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>391</v>
       </c>
@@ -15454,7 +15501,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>392</v>
       </c>
@@ -15467,10 +15514,10 @@
       <c r="D392" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="H392" s="1"/>
-      <c r="K392" s="1"/>
-    </row>
-    <row r="393" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I392" s="1"/>
+      <c r="L392" s="1"/>
+    </row>
+    <row r="393" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>393</v>
       </c>
@@ -15484,7 +15531,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="394" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>394</v>
       </c>
@@ -15497,9 +15544,9 @@
       <c r="D394" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="H394" s="1"/>
-    </row>
-    <row r="395" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I394" s="1"/>
+    </row>
+    <row r="395" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>395</v>
       </c>
@@ -15512,9 +15559,9 @@
       <c r="D395" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I395" s="1"/>
-    </row>
-    <row r="396" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J395" s="1"/>
+    </row>
+    <row r="396" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>396</v>
       </c>
@@ -15528,7 +15575,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="397" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>397</v>
       </c>
@@ -15542,7 +15589,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="398" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>398</v>
       </c>
@@ -15555,9 +15602,9 @@
       <c r="D398" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="K398" s="1"/>
-    </row>
-    <row r="399" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L398" s="1"/>
+    </row>
+    <row r="399" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>399</v>
       </c>
@@ -15570,9 +15617,9 @@
       <c r="D399" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="K399" s="1"/>
-    </row>
-    <row r="400" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L399" s="1"/>
+    </row>
+    <row r="400" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>400</v>
       </c>
@@ -15585,9 +15632,9 @@
       <c r="D400" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I400" s="1"/>
-    </row>
-    <row r="401" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J400" s="1"/>
+    </row>
+    <row r="401" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>401</v>
       </c>
@@ -15601,7 +15648,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="402" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>402</v>
       </c>
@@ -15614,9 +15661,9 @@
       <c r="D402" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="H402" s="1"/>
-    </row>
-    <row r="403" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I402" s="1"/>
+    </row>
+    <row r="403" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>403</v>
       </c>
@@ -15629,9 +15676,9 @@
       <c r="D403" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I403" s="1"/>
-    </row>
-    <row r="404" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J403" s="1"/>
+    </row>
+    <row r="404" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>404</v>
       </c>
@@ -15644,9 +15691,9 @@
       <c r="D404" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I404" s="1"/>
-    </row>
-    <row r="405" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J404" s="1"/>
+    </row>
+    <row r="405" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>405</v>
       </c>
@@ -15659,9 +15706,9 @@
       <c r="D405" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="H405" s="1"/>
-    </row>
-    <row r="406" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I405" s="1"/>
+    </row>
+    <row r="406" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>406</v>
       </c>
@@ -15675,7 +15722,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="407" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>407</v>
       </c>
@@ -15689,7 +15736,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>408</v>
       </c>
@@ -15703,7 +15750,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>409</v>
       </c>
@@ -15717,7 +15764,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>410</v>
       </c>
@@ -15730,10 +15777,10 @@
       <c r="D410" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="H410" s="1"/>
-      <c r="K410" s="1"/>
-    </row>
-    <row r="411" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I410" s="1"/>
+      <c r="L410" s="1"/>
+    </row>
+    <row r="411" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>411</v>
       </c>
@@ -15746,9 +15793,9 @@
       <c r="D411" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I411" s="1"/>
-    </row>
-    <row r="412" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J411" s="1"/>
+    </row>
+    <row r="412" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>412</v>
       </c>
@@ -15761,9 +15808,9 @@
       <c r="D412" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I412" s="1"/>
-    </row>
-    <row r="413" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J412" s="1"/>
+    </row>
+    <row r="413" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>413</v>
       </c>
@@ -15776,9 +15823,9 @@
       <c r="D413" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I413" s="1"/>
-    </row>
-    <row r="414" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J413" s="1"/>
+    </row>
+    <row r="414" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>414</v>
       </c>
@@ -15791,9 +15838,9 @@
       <c r="D414" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="K414" s="1"/>
-    </row>
-    <row r="415" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L414" s="1"/>
+    </row>
+    <row r="415" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>415</v>
       </c>
@@ -15806,9 +15853,9 @@
       <c r="D415" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="K415" s="1"/>
-    </row>
-    <row r="416" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L415" s="1"/>
+    </row>
+    <row r="416" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>416</v>
       </c>
@@ -15821,9 +15868,9 @@
       <c r="D416" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="K416" s="1"/>
-    </row>
-    <row r="417" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L416" s="1"/>
+    </row>
+    <row r="417" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>417</v>
       </c>
@@ -15836,10 +15883,10 @@
       <c r="D417" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I417" s="1"/>
-      <c r="K417" s="1"/>
-    </row>
-    <row r="418" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J417" s="1"/>
+      <c r="L417" s="1"/>
+    </row>
+    <row r="418" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>418</v>
       </c>
@@ -15852,10 +15899,10 @@
       <c r="D418" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="H418" s="1"/>
-      <c r="K418" s="1"/>
-    </row>
-    <row r="419" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I418" s="1"/>
+      <c r="L418" s="1"/>
+    </row>
+    <row r="419" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>419</v>
       </c>
@@ -15868,10 +15915,10 @@
       <c r="D419" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="H419" s="1"/>
-      <c r="K419" s="1"/>
-    </row>
-    <row r="420" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I419" s="1"/>
+      <c r="L419" s="1"/>
+    </row>
+    <row r="420" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>420</v>
       </c>
@@ -15884,10 +15931,10 @@
       <c r="D420" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="H420" s="1"/>
-      <c r="K420" s="1"/>
-    </row>
-    <row r="421" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I420" s="1"/>
+      <c r="L420" s="1"/>
+    </row>
+    <row r="421" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>421</v>
       </c>
@@ -15901,7 +15948,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="422" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>422</v>
       </c>
@@ -15915,7 +15962,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="423" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>423</v>
       </c>
@@ -15929,7 +15976,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="424" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>424</v>
       </c>
@@ -15942,9 +15989,9 @@
       <c r="D424" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="K424" s="1"/>
-    </row>
-    <row r="425" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L424" s="1"/>
+    </row>
+    <row r="425" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>425</v>
       </c>
@@ -15957,9 +16004,9 @@
       <c r="D425" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="K425" s="1"/>
-    </row>
-    <row r="426" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L425" s="1"/>
+    </row>
+    <row r="426" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>426</v>
       </c>
@@ -15972,9 +16019,9 @@
       <c r="D426" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="K426" s="1"/>
-    </row>
-    <row r="427" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L426" s="1"/>
+    </row>
+    <row r="427" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>427</v>
       </c>
@@ -15988,7 +16035,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="428" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>428</v>
       </c>
@@ -16002,7 +16049,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="429" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>429</v>
       </c>
@@ -16015,9 +16062,9 @@
       <c r="D429" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="H429" s="1"/>
-    </row>
-    <row r="430" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I429" s="1"/>
+    </row>
+    <row r="430" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>430</v>
       </c>
@@ -16031,7 +16078,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="431" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>431</v>
       </c>
@@ -16045,7 +16092,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="432" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>432</v>
       </c>
@@ -16058,9 +16105,9 @@
       <c r="D432" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="H432" s="1"/>
-    </row>
-    <row r="433" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I432" s="1"/>
+    </row>
+    <row r="433" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>433</v>
       </c>
@@ -16074,7 +16121,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="434" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>434</v>
       </c>
@@ -16087,10 +16134,10 @@
       <c r="D434" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I434" s="1"/>
-      <c r="K434" s="1"/>
-    </row>
-    <row r="435" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J434" s="1"/>
+      <c r="L434" s="1"/>
+    </row>
+    <row r="435" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>435</v>
       </c>
@@ -16103,9 +16150,9 @@
       <c r="D435" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="I435" s="1"/>
-    </row>
-    <row r="436" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J435" s="1"/>
+    </row>
+    <row r="436" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>436</v>
       </c>
@@ -16118,9 +16165,9 @@
       <c r="D436" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="H436" s="1"/>
-    </row>
-    <row r="437" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I436" s="1"/>
+    </row>
+    <row r="437" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>437</v>
       </c>
@@ -16134,7 +16181,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="438" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>438</v>
       </c>
@@ -16148,7 +16195,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="439" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>439</v>
       </c>
@@ -16161,9 +16208,9 @@
       <c r="D439" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="K439" s="1"/>
-    </row>
-    <row r="440" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L439" s="1"/>
+    </row>
+    <row r="440" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>440</v>
       </c>
@@ -16176,9 +16223,9 @@
       <c r="D440" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="K440" s="1"/>
-    </row>
-    <row r="441" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L440" s="1"/>
+    </row>
+    <row r="441" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>441</v>
       </c>
@@ -16191,10 +16238,10 @@
       <c r="D441" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="H441" s="1"/>
-      <c r="K441" s="1"/>
-    </row>
-    <row r="442" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I441" s="1"/>
+      <c r="L441" s="1"/>
+    </row>
+    <row r="442" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>442</v>
       </c>
@@ -16207,10 +16254,10 @@
       <c r="D442" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="H442" s="1"/>
-      <c r="K442" s="1"/>
-    </row>
-    <row r="443" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I442" s="1"/>
+      <c r="L442" s="1"/>
+    </row>
+    <row r="443" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>443</v>
       </c>
@@ -16223,10 +16270,10 @@
       <c r="D443" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="H443" s="1"/>
-      <c r="K443" s="1"/>
-    </row>
-    <row r="444" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I443" s="1"/>
+      <c r="L443" s="1"/>
+    </row>
+    <row r="444" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>444</v>
       </c>
@@ -16239,10 +16286,10 @@
       <c r="D444" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="H444" s="1"/>
-      <c r="K444" s="1"/>
-    </row>
-    <row r="445" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I444" s="1"/>
+      <c r="L444" s="1"/>
+    </row>
+    <row r="445" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>445</v>
       </c>
@@ -16256,7 +16303,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="446" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>446</v>
       </c>
@@ -16269,9 +16316,9 @@
       <c r="D446" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="K446" s="1"/>
-    </row>
-    <row r="447" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L446" s="1"/>
+    </row>
+    <row r="447" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>447</v>
       </c>
